--- a/Original Data/Summer_Mow_Burn_Data.xlsx
+++ b/Original Data/Summer_Mow_Burn_Data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data/Regen_RProj/Original Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98711D82-0E08-FE4F-8A8A-DE87865DD702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05879604-1498-9940-ACD6-ADC6D3957049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1080" windowWidth="25620" windowHeight="16280" activeTab="7" xr2:uid="{328F3506-10AE-CF48-B3E7-FED4E05901DC}"/>
+    <workbookView xWindow="220" yWindow="1080" windowWidth="25620" windowHeight="16280" activeTab="5" xr2:uid="{328F3506-10AE-CF48-B3E7-FED4E05901DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Lookups" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Veg" sheetId="7" r:id="rId7"/>
     <sheet name="Ground Data" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="794">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="795">
   <si>
     <t>Code</t>
   </si>
@@ -2424,6 +2424,9 @@
   </si>
   <si>
     <t>LymantriaDefo%</t>
+  </si>
+  <si>
+    <t>Plot_No</t>
   </si>
 </sst>
 </file>
@@ -20131,7 +20134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F5760F-CBFF-9545-AE0D-9981557ACF57}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
@@ -20152,7 +20155,7 @@
         <v>778</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>788</v>
+        <v>794</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>776</v>
@@ -28445,7 +28448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81122215-19AD-6544-853F-6F9496FAC7F0}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>

--- a/Original Data/Summer_Mow_Burn_Data.xlsx
+++ b/Original Data/Summer_Mow_Burn_Data.xlsx
@@ -5,22 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data/Regen_RProj/Original Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Desktop/Data/Original Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05879604-1498-9940-ACD6-ADC6D3957049}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76272153-A5BF-394A-8340-B72CB3B36884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="220" yWindow="1080" windowWidth="25620" windowHeight="16280" activeTab="5" xr2:uid="{328F3506-10AE-CF48-B3E7-FED4E05901DC}"/>
+    <workbookView xWindow="220" yWindow="1080" windowWidth="25620" windowHeight="16280" activeTab="8" xr2:uid="{328F3506-10AE-CF48-B3E7-FED4E05901DC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Lookups" sheetId="1" r:id="rId1"/>
-    <sheet name="Plot Details" sheetId="2" r:id="rId2"/>
-    <sheet name="Small Seedling" sheetId="3" r:id="rId3"/>
-    <sheet name="Large Seedling" sheetId="4" r:id="rId4"/>
-    <sheet name="Sapling" sheetId="5" r:id="rId5"/>
-    <sheet name="Prism" sheetId="6" r:id="rId6"/>
-    <sheet name="Veg" sheetId="7" r:id="rId7"/>
-    <sheet name="Ground Data" sheetId="8" r:id="rId8"/>
+    <sheet name="Meta" sheetId="9" r:id="rId1"/>
+    <sheet name="Lookups" sheetId="1" r:id="rId2"/>
+    <sheet name="Plot Details" sheetId="2" r:id="rId3"/>
+    <sheet name="Small Seedling" sheetId="3" r:id="rId4"/>
+    <sheet name="Large Seedling" sheetId="4" r:id="rId5"/>
+    <sheet name="Sapling" sheetId="5" r:id="rId6"/>
+    <sheet name="Prism" sheetId="6" r:id="rId7"/>
+    <sheet name="Veg" sheetId="7" r:id="rId8"/>
+    <sheet name="Ground Data" sheetId="8" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3454" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3518" uniqueCount="851">
   <si>
     <t>Code</t>
   </si>
@@ -2408,25 +2409,204 @@
     <t>LitterDepth_SEcorner(cm)</t>
   </si>
   <si>
-    <t>Plot#</t>
-  </si>
-  <si>
-    <t>Total#</t>
-  </si>
-  <si>
-    <t>Browsed#</t>
-  </si>
-  <si>
-    <t>StumpSprout#</t>
-  </si>
-  <si>
-    <t>Germinate#</t>
-  </si>
-  <si>
-    <t>LymantriaDefo%</t>
+    <t>Notes, LYDI defoliation, and the categories 'trash/junk' &amp; 'water' were removed to import data into R</t>
+  </si>
+  <si>
+    <t>How data has been transformed</t>
+  </si>
+  <si>
+    <t>Each observation of a different species is on a different line (hard return)</t>
+  </si>
+  <si>
+    <t>From data importation, data appears to be separated with a ;</t>
+  </si>
+  <si>
+    <t>Sites were no species were observed are given an NA/'no species found' designation. Data was measured, it is NOT missing, despite NAs providing some trickiness in working with R</t>
+  </si>
+  <si>
+    <t>Data in columns are the species, number, size, % etc found</t>
+  </si>
+  <si>
+    <t>Data in rows are individual observations from plots within sites</t>
+  </si>
+  <si>
+    <t>All plants were given a 4 leter species code, two from the first latin name, two from the second; all are listed on the lookups page</t>
+  </si>
+  <si>
+    <t>of 1 square meter frame</t>
+  </si>
+  <si>
+    <t>81-100%</t>
+  </si>
+  <si>
+    <t>61-80%</t>
+  </si>
+  <si>
+    <t>41-60%</t>
+  </si>
+  <si>
+    <t>21-40%</t>
+  </si>
+  <si>
+    <t>11-20%</t>
+  </si>
+  <si>
+    <t>6-10%</t>
+  </si>
+  <si>
+    <t>1-5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;1% </t>
+  </si>
+  <si>
+    <t>Veg &amp; Ground Cover units: covering</t>
+  </si>
+  <si>
+    <t>Prism unit: 10BAF prism</t>
+  </si>
+  <si>
+    <t>Sapling unit: DBH in cm</t>
+  </si>
+  <si>
+    <t>Large seedling unit: count</t>
+  </si>
+  <si>
+    <t>Small seedling unit: count</t>
+  </si>
+  <si>
+    <t>There were 3 replicates of each treatment, where possible, in each region, except for control, which had 2 replicates in every region (and 3 in LI, as it was the first summer of data collection)</t>
+  </si>
+  <si>
+    <t>Sampling units came in 6 different treatment catgories: Spring RxFire, Fall RxFire, Harvest, Mow &amp; RxFire, Control, &amp; untreated Southern Pine Beetle outbreak</t>
+  </si>
+  <si>
+    <r>
+      <t>Lymantria dispar</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve"> outbreaks in NH in 2022 and late frost in MA in 2023 impacted the foliar abundance of some plants measured in the vegetative percent cover classes.  </t>
+    </r>
+  </si>
+  <si>
+    <t>Ground cover was classified into nine type classes (i.e. lichen, trash/junk, moss, road/trail, rock, water, mineral soil, wood, &amp; litter/duff) and abundance is characterized within the 1m² square plots, using the above eight cover classes. Water and trash/junk categories were never recorded. Litter depth measurements, measuring the depth of the O layer, were taken at the NW and SE corners of the 1m² frame at every other plot. Depths were measured up to 15cm, size of measuring tool.</t>
+  </si>
+  <si>
+    <t>Vegetation was measured at every other 1 square meter plot, with SW corner of frame at plot center. Percent cover is recorded for each species present using eight cover classes: 1 &lt;1%; 2 1-5%; 3 6-10%; 4 11-20%; 5 21-40%; 6 41-60%; 7 61-80%; 8 81-100%. Samples were taken (or photos) for unidentified plants</t>
+  </si>
+  <si>
+    <t>Binoculars were used the second year of sampling to look for mature, closed cones on trees. It was a rainy summer, which can contribute to cones being closed when they are not serotinous.</t>
+  </si>
+  <si>
+    <t>Prism data was collected at each plot, using the plot center and a 10BAF prism</t>
+  </si>
+  <si>
+    <t>Regeneration was measured at functional height and not stretched; e.g. scrub oak branches were not pulled up to see if they exceeded 50cm, but rather measured where at their natural, effective height</t>
+  </si>
+  <si>
+    <t>Saplings were &gt;/= 2.5cm and &lt;10cm DBH and measured in a 25 square meter circular plot;  size to one decimal point was recorded for each sapling, along with information about disease/defects</t>
+  </si>
+  <si>
+    <t>Large seedling (LS) were &gt;/= 50cm height and &lt;2.5cm DBH and measured in a 10 square meter circular plot; total number, along with number browsed and stump sprouts recorded. In 2022, there was a lymantria dispar outbreak in NH, some data was recorded about LYDI dispar but it was isolated to NH</t>
+  </si>
+  <si>
+    <t>Small seedling (SS), were &lt;50cm in height and measured in 1 square meter frame, with the SW corner of the frame located at the plot center; total number, number browsed, stump sprouts, and germinates recorded</t>
+  </si>
+  <si>
+    <t>Regeneration was measured in 3 size classes and plot sizes:</t>
+  </si>
+  <si>
+    <t>Sampling site data includes natural community type, soil series, treatment type, treatment year, and presence of invasive plants not captured in the regeneration and shrub/herbaceous sampling. Recorded plot data includes latitude, longitude, slope, and aspect.</t>
+  </si>
+  <si>
+    <t>Sites that were very large were subsampled. A center point was chosen visually with uniform/representative cover. An 8 HA/20A circular buffer was added around this central point. 40 meter buffers from unit edge were enforced where necessary and plots dropped within buffers or wrong natural communities (e.g. ponds)</t>
+  </si>
+  <si>
+    <t>Plot centers were GPS-ed using a Garmin handheld unit.</t>
+  </si>
+  <si>
+    <t>Plots were a minimum of 10 meters apart, collected on transected. Plot points were generated by use of the fishnet function in ArcGIS, snapped to a random point</t>
+  </si>
+  <si>
+    <t>Each site represents a treatment unit of pitch pine barren within a region. Each unit had an internal buffer of 30-40 meters and had between 18 and 25 plots located within them, with the exception of two RP D2, which was too small a unit and could only provide 9 plots with adequate buffering</t>
+  </si>
+  <si>
+    <t>Organization of the data file</t>
+  </si>
+  <si>
+    <t>Central Pine Barrens Joint Planning and Policy Commission, P. Weigand</t>
+  </si>
+  <si>
+    <t>University of Vermont, Dr. D'Amato</t>
+  </si>
+  <si>
+    <t>Spatial technology development program</t>
+  </si>
+  <si>
+    <t>USDA, Dr. Dodds</t>
+  </si>
+  <si>
+    <t>Source of Support</t>
+  </si>
+  <si>
+    <t>Regeneration dynamics in northeastern pitch pine barrens under different restoration scenarios</t>
+  </si>
+  <si>
+    <t>Name of Study</t>
+  </si>
+  <si>
+    <t>Stand/Unit names are used as site names, with abbreviations. E.g. 'West Branch 10' at Ossipee TNC is labled TNCO_WB10</t>
+  </si>
+  <si>
+    <t>Waterboro: TNC Waterboro</t>
+  </si>
+  <si>
+    <t>Ossipee: TNC Ossipee &amp; Society for the Protection of New Hampshire's Forests</t>
+  </si>
+  <si>
+    <t>Cape Cod: Camp Edwards, Mashpee Wildlife Management Area, &amp; Myles Standish State Forest</t>
+  </si>
+  <si>
+    <t>Albany: Albany Pine Bush Preserve</t>
+  </si>
+  <si>
+    <t>Long Island: Rocky Point Pine Barren State Forest, Werthiem National Wildlife Refuge, Southaven County Park, &amp; Hubbard County Park</t>
+  </si>
+  <si>
+    <t>Data were collected in Summer of 2022 &amp; 2023 in Pitch Pine Barrens on Long Island, NY, Albany, NY, Cape Cod area, MA, Ossipee area, NH, &amp; Waterboro, ME</t>
+  </si>
+  <si>
+    <t>Geographic Information</t>
+  </si>
+  <si>
+    <t>Kathleen Stutzman; kstutzma@gmail.com</t>
+  </si>
+  <si>
+    <t>Name &amp; Contact Info</t>
   </si>
   <si>
     <t>Plot_No</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Browsed</t>
+  </si>
+  <si>
+    <t>StumpSprout</t>
+  </si>
+  <si>
+    <t>Germinate</t>
+  </si>
+  <si>
+    <t>LYDI_Defo</t>
   </si>
 </sst>
 </file>
@@ -2437,7 +2617,7 @@
     <numFmt numFmtId="164" formatCode="0.00000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2474,6 +2654,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2495,7 +2690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2506,6 +2701,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2819,6 +3022,338 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12F1199-A839-5749-9FA2-B9F5A0696A81}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="45.6640625" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>844</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>842</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B3" s="2" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="2" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B5" s="2" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B6" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B7" s="2" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B8" s="2" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>834</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>832</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>831</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B11" s="2" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B12" s="2" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>827</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B14" s="2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B15" s="2" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B16" s="2" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="11" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="2" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="2" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="2" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="2" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="2" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B23" s="2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" s="2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B25" s="2" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B26" s="2" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B27" s="10" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B28" s="2" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" s="2" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B30" s="2" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B32" s="2" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B33" s="2" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B34" s="2" t="s">
+        <v>805</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>804</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="2">
+        <v>2</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>802</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C37" s="2">
+        <v>4</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C38" s="2">
+        <v>5</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>800</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="2">
+        <v>6</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>799</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C40" s="2">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C41" s="2">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>797</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B42" s="2" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B43" s="2" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B44" s="2" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B45" s="2" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B46" s="2" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B47" s="2" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>788</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803182A4-0DBD-FE48-ADB6-3CE2D70CCDC2}">
   <dimension ref="A1:F243"/>
   <sheetViews>
@@ -5522,7 +6057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C30D969-EB47-424C-B185-AD5A2274F503}">
   <dimension ref="A1:Q70"/>
   <sheetViews>
@@ -6474,7 +7009,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ADEA277-0E57-8840-A58F-064455B4C014}">
   <dimension ref="A1:I154"/>
   <sheetViews>
@@ -6500,7 +7035,7 @@
         <v>778</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>788</v>
+        <v>845</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>776</v>
@@ -6509,16 +7044,16 @@
         <v>777</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>789</v>
+        <v>846</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>790</v>
+        <v>847</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>791</v>
+        <v>848</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>792</v>
+        <v>849</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -11116,7 +11651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E678F60-55D0-B74B-A838-9B20E212A2D1}">
   <dimension ref="A1:I243"/>
   <sheetViews>
@@ -11144,7 +11679,7 @@
         <v>778</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>788</v>
+        <v>845</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>776</v>
@@ -11153,16 +11688,16 @@
         <v>777</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>789</v>
+        <v>846</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>790</v>
+        <v>847</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>791</v>
+        <v>848</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>793</v>
+        <v>850</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
@@ -18430,13 +18965,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB268A33-3B3B-E24A-82DD-F59217D2B625}">
   <dimension ref="A1:I78"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A66" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+      <selection pane="bottomLeft" sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -18450,31 +18985,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>346</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="12" t="s">
         <v>778</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>788</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="12" t="s">
+        <v>845</v>
+      </c>
+      <c r="D1" s="12" t="s">
         <v>776</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
         <v>777</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="13" t="s">
         <v>780</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="12" t="s">
         <v>368</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="12" t="s">
         <v>781</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="12" t="s">
         <v>358</v>
       </c>
     </row>
@@ -20130,11 +20665,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2F5760F-CBFF-9545-AE0D-9981557ACF57}">
   <dimension ref="A1:G110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
@@ -20155,7 +20690,7 @@
         <v>778</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>794</v>
+        <v>845</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>776</v>
@@ -22791,7 +23326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67AF3B60-0E74-734A-A08B-D35EB7E4C5C1}">
   <dimension ref="A1:G268"/>
   <sheetViews>
@@ -22817,7 +23352,7 @@
         <v>778</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>788</v>
+        <v>845</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>776</v>
@@ -28444,13 +28979,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81122215-19AD-6544-853F-6F9496FAC7F0}">
   <dimension ref="A1:O35"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <selection pane="bottomLeft" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -28469,7 +29004,7 @@
         <v>778</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>788</v>
+        <v>845</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>360</v>
